--- a/sequences/10_retrieval_1.xlsx
+++ b/sequences/10_retrieval_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1856,6 +1856,30 @@
       <c r="F2" t="s">
         <v>205</v>
       </c>
+      <c r="G2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N2" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
@@ -2008,6 +2032,30 @@
       <c r="F6" t="s">
         <v>205</v>
       </c>
+      <c r="G6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H6" t="s">
+        <v>205</v>
+      </c>
+      <c r="I6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" t="s">
+        <v>205</v>
+      </c>
+      <c r="K6" t="s">
+        <v>205</v>
+      </c>
+      <c r="L6" t="s">
+        <v>205</v>
+      </c>
+      <c r="M6" t="s">
+        <v>205</v>
+      </c>
+      <c r="N6" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
@@ -2028,6 +2076,30 @@
       <c r="F7" t="s">
         <v>205</v>
       </c>
+      <c r="G7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M7" t="s">
+        <v>205</v>
+      </c>
+      <c r="N7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
@@ -2224,6 +2296,30 @@
       <c r="F12" t="s">
         <v>205</v>
       </c>
+      <c r="G12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" t="s">
+        <v>205</v>
+      </c>
+      <c r="I12" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" t="s">
+        <v>205</v>
+      </c>
+      <c r="K12" t="s">
+        <v>205</v>
+      </c>
+      <c r="L12" t="s">
+        <v>205</v>
+      </c>
+      <c r="M12" t="s">
+        <v>205</v>
+      </c>
+      <c r="N12" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
@@ -2376,6 +2472,30 @@
       <c r="F16" t="s">
         <v>205</v>
       </c>
+      <c r="G16" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" t="s">
+        <v>205</v>
+      </c>
+      <c r="I16" t="s">
+        <v>205</v>
+      </c>
+      <c r="J16" t="s">
+        <v>205</v>
+      </c>
+      <c r="K16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L16" t="s">
+        <v>205</v>
+      </c>
+      <c r="M16" t="s">
+        <v>205</v>
+      </c>
+      <c r="N16" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
@@ -2396,6 +2516,30 @@
       <c r="F17" t="s">
         <v>205</v>
       </c>
+      <c r="G17" t="s">
+        <v>205</v>
+      </c>
+      <c r="H17" t="s">
+        <v>205</v>
+      </c>
+      <c r="I17" t="s">
+        <v>205</v>
+      </c>
+      <c r="J17" t="s">
+        <v>205</v>
+      </c>
+      <c r="K17" t="s">
+        <v>205</v>
+      </c>
+      <c r="L17" t="s">
+        <v>205</v>
+      </c>
+      <c r="M17" t="s">
+        <v>205</v>
+      </c>
+      <c r="N17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
@@ -2504,6 +2648,30 @@
       <c r="F20" t="s">
         <v>205</v>
       </c>
+      <c r="G20" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" t="s">
+        <v>205</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="s">
+        <v>205</v>
+      </c>
+      <c r="N20" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
@@ -2524,6 +2692,30 @@
       <c r="F21" t="s">
         <v>205</v>
       </c>
+      <c r="G21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" t="s">
+        <v>205</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21" t="s">
+        <v>205</v>
+      </c>
+      <c r="N21" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
@@ -2632,6 +2824,30 @@
       <c r="F24" t="s">
         <v>205</v>
       </c>
+      <c r="G24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H24" t="s">
+        <v>205</v>
+      </c>
+      <c r="I24" t="s">
+        <v>205</v>
+      </c>
+      <c r="J24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" t="s">
+        <v>205</v>
+      </c>
+      <c r="L24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" t="s">
+        <v>205</v>
+      </c>
+      <c r="N24" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
@@ -2872,6 +3088,30 @@
       <c r="F30" t="s">
         <v>205</v>
       </c>
+      <c r="G30" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" t="s">
+        <v>205</v>
+      </c>
+      <c r="I30" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" t="s">
+        <v>205</v>
+      </c>
+      <c r="M30" t="s">
+        <v>205</v>
+      </c>
+      <c r="N30" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
@@ -2936,6 +3176,30 @@
       <c r="F32" t="s">
         <v>205</v>
       </c>
+      <c r="G32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H32" t="s">
+        <v>205</v>
+      </c>
+      <c r="I32" t="s">
+        <v>205</v>
+      </c>
+      <c r="J32" t="s">
+        <v>205</v>
+      </c>
+      <c r="K32" t="s">
+        <v>205</v>
+      </c>
+      <c r="L32" t="s">
+        <v>205</v>
+      </c>
+      <c r="M32" t="s">
+        <v>205</v>
+      </c>
+      <c r="N32" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
@@ -3044,6 +3308,30 @@
       <c r="F35" t="s">
         <v>205</v>
       </c>
+      <c r="G35" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I35" t="s">
+        <v>205</v>
+      </c>
+      <c r="J35" t="s">
+        <v>205</v>
+      </c>
+      <c r="K35" t="s">
+        <v>205</v>
+      </c>
+      <c r="L35" t="s">
+        <v>205</v>
+      </c>
+      <c r="M35" t="s">
+        <v>205</v>
+      </c>
+      <c r="N35" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
@@ -3064,6 +3352,30 @@
       <c r="F36" t="s">
         <v>205</v>
       </c>
+      <c r="G36" t="s">
+        <v>205</v>
+      </c>
+      <c r="H36" t="s">
+        <v>205</v>
+      </c>
+      <c r="I36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J36" t="s">
+        <v>205</v>
+      </c>
+      <c r="K36" t="s">
+        <v>205</v>
+      </c>
+      <c r="L36" t="s">
+        <v>205</v>
+      </c>
+      <c r="M36" t="s">
+        <v>205</v>
+      </c>
+      <c r="N36" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
@@ -3216,6 +3528,30 @@
       <c r="F40" t="s">
         <v>205</v>
       </c>
+      <c r="G40" t="s">
+        <v>205</v>
+      </c>
+      <c r="H40" t="s">
+        <v>205</v>
+      </c>
+      <c r="I40" t="s">
+        <v>205</v>
+      </c>
+      <c r="J40" t="s">
+        <v>205</v>
+      </c>
+      <c r="K40" t="s">
+        <v>205</v>
+      </c>
+      <c r="L40" t="s">
+        <v>205</v>
+      </c>
+      <c r="M40" t="s">
+        <v>205</v>
+      </c>
+      <c r="N40" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
@@ -3280,6 +3616,30 @@
       <c r="F42" t="s">
         <v>205</v>
       </c>
+      <c r="G42" t="s">
+        <v>205</v>
+      </c>
+      <c r="H42" t="s">
+        <v>205</v>
+      </c>
+      <c r="I42" t="s">
+        <v>205</v>
+      </c>
+      <c r="J42" t="s">
+        <v>205</v>
+      </c>
+      <c r="K42" t="s">
+        <v>205</v>
+      </c>
+      <c r="L42" t="s">
+        <v>205</v>
+      </c>
+      <c r="M42" t="s">
+        <v>205</v>
+      </c>
+      <c r="N42" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
@@ -3564,6 +3924,30 @@
       <c r="F49" t="s">
         <v>205</v>
       </c>
+      <c r="G49" t="s">
+        <v>205</v>
+      </c>
+      <c r="H49" t="s">
+        <v>205</v>
+      </c>
+      <c r="I49" t="s">
+        <v>205</v>
+      </c>
+      <c r="J49" t="s">
+        <v>205</v>
+      </c>
+      <c r="K49" t="s">
+        <v>205</v>
+      </c>
+      <c r="L49" t="s">
+        <v>205</v>
+      </c>
+      <c r="M49" t="s">
+        <v>205</v>
+      </c>
+      <c r="N49" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
@@ -3584,6 +3968,30 @@
       <c r="F50" t="s">
         <v>205</v>
       </c>
+      <c r="G50" t="s">
+        <v>205</v>
+      </c>
+      <c r="H50" t="s">
+        <v>205</v>
+      </c>
+      <c r="I50" t="s">
+        <v>205</v>
+      </c>
+      <c r="J50" t="s">
+        <v>205</v>
+      </c>
+      <c r="K50" t="s">
+        <v>205</v>
+      </c>
+      <c r="L50" t="s">
+        <v>205</v>
+      </c>
+      <c r="M50" t="s">
+        <v>205</v>
+      </c>
+      <c r="N50" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
@@ -3648,6 +4056,30 @@
       <c r="F52" t="s">
         <v>205</v>
       </c>
+      <c r="G52" t="s">
+        <v>205</v>
+      </c>
+      <c r="H52" t="s">
+        <v>205</v>
+      </c>
+      <c r="I52" t="s">
+        <v>205</v>
+      </c>
+      <c r="J52" t="s">
+        <v>205</v>
+      </c>
+      <c r="K52" t="s">
+        <v>205</v>
+      </c>
+      <c r="L52" t="s">
+        <v>205</v>
+      </c>
+      <c r="M52" t="s">
+        <v>205</v>
+      </c>
+      <c r="N52" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
@@ -3712,6 +4144,30 @@
       <c r="F54" t="s">
         <v>205</v>
       </c>
+      <c r="G54" t="s">
+        <v>205</v>
+      </c>
+      <c r="H54" t="s">
+        <v>205</v>
+      </c>
+      <c r="I54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J54" t="s">
+        <v>205</v>
+      </c>
+      <c r="K54" t="s">
+        <v>205</v>
+      </c>
+      <c r="L54" t="s">
+        <v>205</v>
+      </c>
+      <c r="M54" t="s">
+        <v>205</v>
+      </c>
+      <c r="N54" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
@@ -3776,6 +4232,30 @@
       <c r="F56" t="s">
         <v>205</v>
       </c>
+      <c r="G56" t="s">
+        <v>205</v>
+      </c>
+      <c r="H56" t="s">
+        <v>205</v>
+      </c>
+      <c r="I56" t="s">
+        <v>205</v>
+      </c>
+      <c r="J56" t="s">
+        <v>205</v>
+      </c>
+      <c r="K56" t="s">
+        <v>205</v>
+      </c>
+      <c r="L56" t="s">
+        <v>205</v>
+      </c>
+      <c r="M56" t="s">
+        <v>205</v>
+      </c>
+      <c r="N56" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
@@ -4060,6 +4540,30 @@
       <c r="F63" t="s">
         <v>205</v>
       </c>
+      <c r="G63" t="s">
+        <v>205</v>
+      </c>
+      <c r="H63" t="s">
+        <v>205</v>
+      </c>
+      <c r="I63" t="s">
+        <v>205</v>
+      </c>
+      <c r="J63" t="s">
+        <v>205</v>
+      </c>
+      <c r="K63" t="s">
+        <v>205</v>
+      </c>
+      <c r="L63" t="s">
+        <v>205</v>
+      </c>
+      <c r="M63" t="s">
+        <v>205</v>
+      </c>
+      <c r="N63" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
@@ -4124,6 +4628,30 @@
       <c r="F65" t="s">
         <v>205</v>
       </c>
+      <c r="G65" t="s">
+        <v>205</v>
+      </c>
+      <c r="H65" t="s">
+        <v>205</v>
+      </c>
+      <c r="I65" t="s">
+        <v>205</v>
+      </c>
+      <c r="J65" t="s">
+        <v>205</v>
+      </c>
+      <c r="K65" t="s">
+        <v>205</v>
+      </c>
+      <c r="L65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M65" t="s">
+        <v>205</v>
+      </c>
+      <c r="N65" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
@@ -4276,6 +4804,30 @@
       <c r="F69" t="s">
         <v>205</v>
       </c>
+      <c r="G69" t="s">
+        <v>205</v>
+      </c>
+      <c r="H69" t="s">
+        <v>205</v>
+      </c>
+      <c r="I69" t="s">
+        <v>205</v>
+      </c>
+      <c r="J69" t="s">
+        <v>205</v>
+      </c>
+      <c r="K69" t="s">
+        <v>205</v>
+      </c>
+      <c r="L69" t="s">
+        <v>205</v>
+      </c>
+      <c r="M69" t="s">
+        <v>205</v>
+      </c>
+      <c r="N69" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1">
@@ -4472,6 +5024,30 @@
       <c r="F74" t="s">
         <v>205</v>
       </c>
+      <c r="G74" t="s">
+        <v>205</v>
+      </c>
+      <c r="H74" t="s">
+        <v>205</v>
+      </c>
+      <c r="I74" t="s">
+        <v>205</v>
+      </c>
+      <c r="J74" t="s">
+        <v>205</v>
+      </c>
+      <c r="K74" t="s">
+        <v>205</v>
+      </c>
+      <c r="L74" t="s">
+        <v>205</v>
+      </c>
+      <c r="M74" t="s">
+        <v>205</v>
+      </c>
+      <c r="N74" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1">
@@ -4536,6 +5112,30 @@
       <c r="F76" t="s">
         <v>205</v>
       </c>
+      <c r="G76" t="s">
+        <v>205</v>
+      </c>
+      <c r="H76" t="s">
+        <v>205</v>
+      </c>
+      <c r="I76" t="s">
+        <v>205</v>
+      </c>
+      <c r="J76" t="s">
+        <v>205</v>
+      </c>
+      <c r="K76" t="s">
+        <v>205</v>
+      </c>
+      <c r="L76" t="s">
+        <v>205</v>
+      </c>
+      <c r="M76" t="s">
+        <v>205</v>
+      </c>
+      <c r="N76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
@@ -4556,6 +5156,30 @@
       <c r="F77" t="s">
         <v>205</v>
       </c>
+      <c r="G77" t="s">
+        <v>205</v>
+      </c>
+      <c r="H77" t="s">
+        <v>205</v>
+      </c>
+      <c r="I77" t="s">
+        <v>205</v>
+      </c>
+      <c r="J77" t="s">
+        <v>205</v>
+      </c>
+      <c r="K77" t="s">
+        <v>205</v>
+      </c>
+      <c r="L77" t="s">
+        <v>205</v>
+      </c>
+      <c r="M77" t="s">
+        <v>205</v>
+      </c>
+      <c r="N77" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
@@ -4664,6 +5288,30 @@
       <c r="F80" t="s">
         <v>205</v>
       </c>
+      <c r="G80" t="s">
+        <v>205</v>
+      </c>
+      <c r="H80" t="s">
+        <v>205</v>
+      </c>
+      <c r="I80" t="s">
+        <v>205</v>
+      </c>
+      <c r="J80" t="s">
+        <v>205</v>
+      </c>
+      <c r="K80" t="s">
+        <v>205</v>
+      </c>
+      <c r="L80" t="s">
+        <v>205</v>
+      </c>
+      <c r="M80" t="s">
+        <v>205</v>
+      </c>
+      <c r="N80" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1">
@@ -4728,6 +5376,30 @@
       <c r="F82" t="s">
         <v>205</v>
       </c>
+      <c r="G82" t="s">
+        <v>205</v>
+      </c>
+      <c r="H82" t="s">
+        <v>205</v>
+      </c>
+      <c r="I82" t="s">
+        <v>205</v>
+      </c>
+      <c r="J82" t="s">
+        <v>205</v>
+      </c>
+      <c r="K82" t="s">
+        <v>205</v>
+      </c>
+      <c r="L82" t="s">
+        <v>205</v>
+      </c>
+      <c r="M82" t="s">
+        <v>205</v>
+      </c>
+      <c r="N82" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1">
@@ -4792,6 +5464,30 @@
       <c r="F84" t="s">
         <v>205</v>
       </c>
+      <c r="G84" t="s">
+        <v>205</v>
+      </c>
+      <c r="H84" t="s">
+        <v>205</v>
+      </c>
+      <c r="I84" t="s">
+        <v>205</v>
+      </c>
+      <c r="J84" t="s">
+        <v>205</v>
+      </c>
+      <c r="K84" t="s">
+        <v>205</v>
+      </c>
+      <c r="L84" t="s">
+        <v>205</v>
+      </c>
+      <c r="M84" t="s">
+        <v>205</v>
+      </c>
+      <c r="N84" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
@@ -5076,6 +5772,30 @@
       <c r="F91" t="s">
         <v>205</v>
       </c>
+      <c r="G91" t="s">
+        <v>205</v>
+      </c>
+      <c r="H91" t="s">
+        <v>205</v>
+      </c>
+      <c r="I91" t="s">
+        <v>205</v>
+      </c>
+      <c r="J91" t="s">
+        <v>205</v>
+      </c>
+      <c r="K91" t="s">
+        <v>205</v>
+      </c>
+      <c r="L91" t="s">
+        <v>205</v>
+      </c>
+      <c r="M91" t="s">
+        <v>205</v>
+      </c>
+      <c r="N91" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
@@ -5228,6 +5948,30 @@
       <c r="F95" t="s">
         <v>205</v>
       </c>
+      <c r="G95" t="s">
+        <v>205</v>
+      </c>
+      <c r="H95" t="s">
+        <v>205</v>
+      </c>
+      <c r="I95" t="s">
+        <v>205</v>
+      </c>
+      <c r="J95" t="s">
+        <v>205</v>
+      </c>
+      <c r="K95" t="s">
+        <v>205</v>
+      </c>
+      <c r="L95" t="s">
+        <v>205</v>
+      </c>
+      <c r="M95" t="s">
+        <v>205</v>
+      </c>
+      <c r="N95" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1">
@@ -5380,6 +6124,30 @@
       <c r="F99" t="s">
         <v>205</v>
       </c>
+      <c r="G99" t="s">
+        <v>205</v>
+      </c>
+      <c r="H99" t="s">
+        <v>205</v>
+      </c>
+      <c r="I99" t="s">
+        <v>205</v>
+      </c>
+      <c r="J99" t="s">
+        <v>205</v>
+      </c>
+      <c r="K99" t="s">
+        <v>205</v>
+      </c>
+      <c r="L99" t="s">
+        <v>205</v>
+      </c>
+      <c r="M99" t="s">
+        <v>205</v>
+      </c>
+      <c r="N99" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="1">
@@ -5664,6 +6432,30 @@
       <c r="F106" t="s">
         <v>205</v>
       </c>
+      <c r="G106" t="s">
+        <v>205</v>
+      </c>
+      <c r="H106" t="s">
+        <v>205</v>
+      </c>
+      <c r="I106" t="s">
+        <v>205</v>
+      </c>
+      <c r="J106" t="s">
+        <v>205</v>
+      </c>
+      <c r="K106" t="s">
+        <v>205</v>
+      </c>
+      <c r="L106" t="s">
+        <v>205</v>
+      </c>
+      <c r="M106" t="s">
+        <v>205</v>
+      </c>
+      <c r="N106" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
@@ -5684,6 +6476,30 @@
       <c r="F107" t="s">
         <v>205</v>
       </c>
+      <c r="G107" t="s">
+        <v>205</v>
+      </c>
+      <c r="H107" t="s">
+        <v>205</v>
+      </c>
+      <c r="I107" t="s">
+        <v>205</v>
+      </c>
+      <c r="J107" t="s">
+        <v>205</v>
+      </c>
+      <c r="K107" t="s">
+        <v>205</v>
+      </c>
+      <c r="L107" t="s">
+        <v>205</v>
+      </c>
+      <c r="M107" t="s">
+        <v>205</v>
+      </c>
+      <c r="N107" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
@@ -5748,6 +6564,30 @@
       <c r="F109" t="s">
         <v>205</v>
       </c>
+      <c r="G109" t="s">
+        <v>205</v>
+      </c>
+      <c r="H109" t="s">
+        <v>205</v>
+      </c>
+      <c r="I109" t="s">
+        <v>205</v>
+      </c>
+      <c r="J109" t="s">
+        <v>205</v>
+      </c>
+      <c r="K109" t="s">
+        <v>205</v>
+      </c>
+      <c r="L109" t="s">
+        <v>205</v>
+      </c>
+      <c r="M109" t="s">
+        <v>205</v>
+      </c>
+      <c r="N109" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="1">
@@ -5768,6 +6608,30 @@
       <c r="F110" t="s">
         <v>205</v>
       </c>
+      <c r="G110" t="s">
+        <v>205</v>
+      </c>
+      <c r="H110" t="s">
+        <v>205</v>
+      </c>
+      <c r="I110" t="s">
+        <v>205</v>
+      </c>
+      <c r="J110" t="s">
+        <v>205</v>
+      </c>
+      <c r="K110" t="s">
+        <v>205</v>
+      </c>
+      <c r="L110" t="s">
+        <v>205</v>
+      </c>
+      <c r="M110" t="s">
+        <v>205</v>
+      </c>
+      <c r="N110" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
@@ -5876,6 +6740,30 @@
       <c r="F113" t="s">
         <v>205</v>
       </c>
+      <c r="G113" t="s">
+        <v>205</v>
+      </c>
+      <c r="H113" t="s">
+        <v>205</v>
+      </c>
+      <c r="I113" t="s">
+        <v>205</v>
+      </c>
+      <c r="J113" t="s">
+        <v>205</v>
+      </c>
+      <c r="K113" t="s">
+        <v>205</v>
+      </c>
+      <c r="L113" t="s">
+        <v>205</v>
+      </c>
+      <c r="M113" t="s">
+        <v>205</v>
+      </c>
+      <c r="N113" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
@@ -5940,6 +6828,30 @@
       <c r="F115" t="s">
         <v>205</v>
       </c>
+      <c r="G115" t="s">
+        <v>205</v>
+      </c>
+      <c r="H115" t="s">
+        <v>205</v>
+      </c>
+      <c r="I115" t="s">
+        <v>205</v>
+      </c>
+      <c r="J115" t="s">
+        <v>205</v>
+      </c>
+      <c r="K115" t="s">
+        <v>205</v>
+      </c>
+      <c r="L115" t="s">
+        <v>205</v>
+      </c>
+      <c r="M115" t="s">
+        <v>205</v>
+      </c>
+      <c r="N115" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="1">
@@ -6004,6 +6916,30 @@
       <c r="F117" t="s">
         <v>205</v>
       </c>
+      <c r="G117" t="s">
+        <v>205</v>
+      </c>
+      <c r="H117" t="s">
+        <v>205</v>
+      </c>
+      <c r="I117" t="s">
+        <v>205</v>
+      </c>
+      <c r="J117" t="s">
+        <v>205</v>
+      </c>
+      <c r="K117" t="s">
+        <v>205</v>
+      </c>
+      <c r="L117" t="s">
+        <v>205</v>
+      </c>
+      <c r="M117" t="s">
+        <v>205</v>
+      </c>
+      <c r="N117" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1">
@@ -6068,6 +7004,30 @@
       <c r="F119" t="s">
         <v>205</v>
       </c>
+      <c r="G119" t="s">
+        <v>205</v>
+      </c>
+      <c r="H119" t="s">
+        <v>205</v>
+      </c>
+      <c r="I119" t="s">
+        <v>205</v>
+      </c>
+      <c r="J119" t="s">
+        <v>205</v>
+      </c>
+      <c r="K119" t="s">
+        <v>205</v>
+      </c>
+      <c r="L119" t="s">
+        <v>205</v>
+      </c>
+      <c r="M119" t="s">
+        <v>205</v>
+      </c>
+      <c r="N119" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
@@ -6352,6 +7312,30 @@
       <c r="F126" t="s">
         <v>205</v>
       </c>
+      <c r="G126" t="s">
+        <v>205</v>
+      </c>
+      <c r="H126" t="s">
+        <v>205</v>
+      </c>
+      <c r="I126" t="s">
+        <v>205</v>
+      </c>
+      <c r="J126" t="s">
+        <v>205</v>
+      </c>
+      <c r="K126" t="s">
+        <v>205</v>
+      </c>
+      <c r="L126" t="s">
+        <v>205</v>
+      </c>
+      <c r="M126" t="s">
+        <v>205</v>
+      </c>
+      <c r="N126" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="1">
@@ -6372,6 +7356,30 @@
       <c r="F127" t="s">
         <v>205</v>
       </c>
+      <c r="G127" t="s">
+        <v>205</v>
+      </c>
+      <c r="H127" t="s">
+        <v>205</v>
+      </c>
+      <c r="I127" t="s">
+        <v>205</v>
+      </c>
+      <c r="J127" t="s">
+        <v>205</v>
+      </c>
+      <c r="K127" t="s">
+        <v>205</v>
+      </c>
+      <c r="L127" t="s">
+        <v>205</v>
+      </c>
+      <c r="M127" t="s">
+        <v>205</v>
+      </c>
+      <c r="N127" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="1">
@@ -6436,6 +7444,30 @@
       <c r="F129" t="s">
         <v>205</v>
       </c>
+      <c r="G129" t="s">
+        <v>205</v>
+      </c>
+      <c r="H129" t="s">
+        <v>205</v>
+      </c>
+      <c r="I129" t="s">
+        <v>205</v>
+      </c>
+      <c r="J129" t="s">
+        <v>205</v>
+      </c>
+      <c r="K129" t="s">
+        <v>205</v>
+      </c>
+      <c r="L129" t="s">
+        <v>205</v>
+      </c>
+      <c r="M129" t="s">
+        <v>205</v>
+      </c>
+      <c r="N129" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
@@ -6500,6 +7532,30 @@
       <c r="F131" t="s">
         <v>205</v>
       </c>
+      <c r="G131" t="s">
+        <v>205</v>
+      </c>
+      <c r="H131" t="s">
+        <v>205</v>
+      </c>
+      <c r="I131" t="s">
+        <v>205</v>
+      </c>
+      <c r="J131" t="s">
+        <v>205</v>
+      </c>
+      <c r="K131" t="s">
+        <v>205</v>
+      </c>
+      <c r="L131" t="s">
+        <v>205</v>
+      </c>
+      <c r="M131" t="s">
+        <v>205</v>
+      </c>
+      <c r="N131" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="1">
@@ -6696,6 +7752,30 @@
       <c r="F136" t="s">
         <v>205</v>
       </c>
+      <c r="G136" t="s">
+        <v>205</v>
+      </c>
+      <c r="H136" t="s">
+        <v>205</v>
+      </c>
+      <c r="I136" t="s">
+        <v>205</v>
+      </c>
+      <c r="J136" t="s">
+        <v>205</v>
+      </c>
+      <c r="K136" t="s">
+        <v>205</v>
+      </c>
+      <c r="L136" t="s">
+        <v>205</v>
+      </c>
+      <c r="M136" t="s">
+        <v>205</v>
+      </c>
+      <c r="N136" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="1">
@@ -6848,6 +7928,30 @@
       <c r="F140" t="s">
         <v>205</v>
       </c>
+      <c r="G140" t="s">
+        <v>205</v>
+      </c>
+      <c r="H140" t="s">
+        <v>205</v>
+      </c>
+      <c r="I140" t="s">
+        <v>205</v>
+      </c>
+      <c r="J140" t="s">
+        <v>205</v>
+      </c>
+      <c r="K140" t="s">
+        <v>205</v>
+      </c>
+      <c r="L140" t="s">
+        <v>205</v>
+      </c>
+      <c r="M140" t="s">
+        <v>205</v>
+      </c>
+      <c r="N140" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="1">
@@ -6956,6 +8060,30 @@
       <c r="F143" t="s">
         <v>205</v>
       </c>
+      <c r="G143" t="s">
+        <v>205</v>
+      </c>
+      <c r="H143" t="s">
+        <v>205</v>
+      </c>
+      <c r="I143" t="s">
+        <v>205</v>
+      </c>
+      <c r="J143" t="s">
+        <v>205</v>
+      </c>
+      <c r="K143" t="s">
+        <v>205</v>
+      </c>
+      <c r="L143" t="s">
+        <v>205</v>
+      </c>
+      <c r="M143" t="s">
+        <v>205</v>
+      </c>
+      <c r="N143" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="1">
@@ -7064,6 +8192,30 @@
       <c r="F146" t="s">
         <v>205</v>
       </c>
+      <c r="G146" t="s">
+        <v>205</v>
+      </c>
+      <c r="H146" t="s">
+        <v>205</v>
+      </c>
+      <c r="I146" t="s">
+        <v>205</v>
+      </c>
+      <c r="J146" t="s">
+        <v>205</v>
+      </c>
+      <c r="K146" t="s">
+        <v>205</v>
+      </c>
+      <c r="L146" t="s">
+        <v>205</v>
+      </c>
+      <c r="M146" t="s">
+        <v>205</v>
+      </c>
+      <c r="N146" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="1">
@@ -7260,6 +8412,30 @@
       <c r="F151" t="s">
         <v>205</v>
       </c>
+      <c r="G151" t="s">
+        <v>205</v>
+      </c>
+      <c r="H151" t="s">
+        <v>205</v>
+      </c>
+      <c r="I151" t="s">
+        <v>205</v>
+      </c>
+      <c r="J151" t="s">
+        <v>205</v>
+      </c>
+      <c r="K151" t="s">
+        <v>205</v>
+      </c>
+      <c r="L151" t="s">
+        <v>205</v>
+      </c>
+      <c r="M151" t="s">
+        <v>205</v>
+      </c>
+      <c r="N151" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="1">
@@ -7368,6 +8544,30 @@
       <c r="F154" t="s">
         <v>205</v>
       </c>
+      <c r="G154" t="s">
+        <v>205</v>
+      </c>
+      <c r="H154" t="s">
+        <v>205</v>
+      </c>
+      <c r="I154" t="s">
+        <v>205</v>
+      </c>
+      <c r="J154" t="s">
+        <v>205</v>
+      </c>
+      <c r="K154" t="s">
+        <v>205</v>
+      </c>
+      <c r="L154" t="s">
+        <v>205</v>
+      </c>
+      <c r="M154" t="s">
+        <v>205</v>
+      </c>
+      <c r="N154" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
@@ -7476,6 +8676,30 @@
       <c r="F157" t="s">
         <v>205</v>
       </c>
+      <c r="G157" t="s">
+        <v>205</v>
+      </c>
+      <c r="H157" t="s">
+        <v>205</v>
+      </c>
+      <c r="I157" t="s">
+        <v>205</v>
+      </c>
+      <c r="J157" t="s">
+        <v>205</v>
+      </c>
+      <c r="K157" t="s">
+        <v>205</v>
+      </c>
+      <c r="L157" t="s">
+        <v>205</v>
+      </c>
+      <c r="M157" t="s">
+        <v>205</v>
+      </c>
+      <c r="N157" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="1">
@@ -7584,6 +8808,30 @@
       <c r="F160" t="s">
         <v>205</v>
       </c>
+      <c r="G160" t="s">
+        <v>205</v>
+      </c>
+      <c r="H160" t="s">
+        <v>205</v>
+      </c>
+      <c r="I160" t="s">
+        <v>205</v>
+      </c>
+      <c r="J160" t="s">
+        <v>205</v>
+      </c>
+      <c r="K160" t="s">
+        <v>205</v>
+      </c>
+      <c r="L160" t="s">
+        <v>205</v>
+      </c>
+      <c r="M160" t="s">
+        <v>205</v>
+      </c>
+      <c r="N160" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="1">
@@ -7604,6 +8852,30 @@
       <c r="F161" t="s">
         <v>205</v>
       </c>
+      <c r="G161" t="s">
+        <v>205</v>
+      </c>
+      <c r="H161" t="s">
+        <v>205</v>
+      </c>
+      <c r="I161" t="s">
+        <v>205</v>
+      </c>
+      <c r="J161" t="s">
+        <v>205</v>
+      </c>
+      <c r="K161" t="s">
+        <v>205</v>
+      </c>
+      <c r="L161" t="s">
+        <v>205</v>
+      </c>
+      <c r="M161" t="s">
+        <v>205</v>
+      </c>
+      <c r="N161" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="1">
@@ -7668,6 +8940,30 @@
       <c r="F163" t="s">
         <v>205</v>
       </c>
+      <c r="G163" t="s">
+        <v>205</v>
+      </c>
+      <c r="H163" t="s">
+        <v>205</v>
+      </c>
+      <c r="I163" t="s">
+        <v>205</v>
+      </c>
+      <c r="J163" t="s">
+        <v>205</v>
+      </c>
+      <c r="K163" t="s">
+        <v>205</v>
+      </c>
+      <c r="L163" t="s">
+        <v>205</v>
+      </c>
+      <c r="M163" t="s">
+        <v>205</v>
+      </c>
+      <c r="N163" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="1">
@@ -7688,6 +8984,30 @@
       <c r="F164" t="s">
         <v>205</v>
       </c>
+      <c r="G164" t="s">
+        <v>205</v>
+      </c>
+      <c r="H164" t="s">
+        <v>205</v>
+      </c>
+      <c r="I164" t="s">
+        <v>205</v>
+      </c>
+      <c r="J164" t="s">
+        <v>205</v>
+      </c>
+      <c r="K164" t="s">
+        <v>205</v>
+      </c>
+      <c r="L164" t="s">
+        <v>205</v>
+      </c>
+      <c r="M164" t="s">
+        <v>205</v>
+      </c>
+      <c r="N164" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="1">
@@ -7928,6 +9248,30 @@
       <c r="F170" t="s">
         <v>205</v>
       </c>
+      <c r="G170" t="s">
+        <v>205</v>
+      </c>
+      <c r="H170" t="s">
+        <v>205</v>
+      </c>
+      <c r="I170" t="s">
+        <v>205</v>
+      </c>
+      <c r="J170" t="s">
+        <v>205</v>
+      </c>
+      <c r="K170" t="s">
+        <v>205</v>
+      </c>
+      <c r="L170" t="s">
+        <v>205</v>
+      </c>
+      <c r="M170" t="s">
+        <v>205</v>
+      </c>
+      <c r="N170" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1">
@@ -7992,6 +9336,30 @@
       <c r="F172" t="s">
         <v>205</v>
       </c>
+      <c r="G172" t="s">
+        <v>205</v>
+      </c>
+      <c r="H172" t="s">
+        <v>205</v>
+      </c>
+      <c r="I172" t="s">
+        <v>205</v>
+      </c>
+      <c r="J172" t="s">
+        <v>205</v>
+      </c>
+      <c r="K172" t="s">
+        <v>205</v>
+      </c>
+      <c r="L172" t="s">
+        <v>205</v>
+      </c>
+      <c r="M172" t="s">
+        <v>205</v>
+      </c>
+      <c r="N172" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="1">
@@ -8012,6 +9380,30 @@
       <c r="F173" t="s">
         <v>205</v>
       </c>
+      <c r="G173" t="s">
+        <v>205</v>
+      </c>
+      <c r="H173" t="s">
+        <v>205</v>
+      </c>
+      <c r="I173" t="s">
+        <v>205</v>
+      </c>
+      <c r="J173" t="s">
+        <v>205</v>
+      </c>
+      <c r="K173" t="s">
+        <v>205</v>
+      </c>
+      <c r="L173" t="s">
+        <v>205</v>
+      </c>
+      <c r="M173" t="s">
+        <v>205</v>
+      </c>
+      <c r="N173" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="1">
@@ -8032,6 +9424,30 @@
       <c r="F174" t="s">
         <v>205</v>
       </c>
+      <c r="G174" t="s">
+        <v>205</v>
+      </c>
+      <c r="H174" t="s">
+        <v>205</v>
+      </c>
+      <c r="I174" t="s">
+        <v>205</v>
+      </c>
+      <c r="J174" t="s">
+        <v>205</v>
+      </c>
+      <c r="K174" t="s">
+        <v>205</v>
+      </c>
+      <c r="L174" t="s">
+        <v>205</v>
+      </c>
+      <c r="M174" t="s">
+        <v>205</v>
+      </c>
+      <c r="N174" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="1">
@@ -8140,6 +9556,30 @@
       <c r="F177" t="s">
         <v>205</v>
       </c>
+      <c r="G177" t="s">
+        <v>205</v>
+      </c>
+      <c r="H177" t="s">
+        <v>205</v>
+      </c>
+      <c r="I177" t="s">
+        <v>205</v>
+      </c>
+      <c r="J177" t="s">
+        <v>205</v>
+      </c>
+      <c r="K177" t="s">
+        <v>205</v>
+      </c>
+      <c r="L177" t="s">
+        <v>205</v>
+      </c>
+      <c r="M177" t="s">
+        <v>205</v>
+      </c>
+      <c r="N177" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="1">
@@ -8380,6 +9820,30 @@
       <c r="F183" t="s">
         <v>205</v>
       </c>
+      <c r="G183" t="s">
+        <v>205</v>
+      </c>
+      <c r="H183" t="s">
+        <v>205</v>
+      </c>
+      <c r="I183" t="s">
+        <v>205</v>
+      </c>
+      <c r="J183" t="s">
+        <v>205</v>
+      </c>
+      <c r="K183" t="s">
+        <v>205</v>
+      </c>
+      <c r="L183" t="s">
+        <v>205</v>
+      </c>
+      <c r="M183" t="s">
+        <v>205</v>
+      </c>
+      <c r="N183" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="1">
@@ -8444,6 +9908,30 @@
       <c r="F185" t="s">
         <v>205</v>
       </c>
+      <c r="G185" t="s">
+        <v>205</v>
+      </c>
+      <c r="H185" t="s">
+        <v>205</v>
+      </c>
+      <c r="I185" t="s">
+        <v>205</v>
+      </c>
+      <c r="J185" t="s">
+        <v>205</v>
+      </c>
+      <c r="K185" t="s">
+        <v>205</v>
+      </c>
+      <c r="L185" t="s">
+        <v>205</v>
+      </c>
+      <c r="M185" t="s">
+        <v>205</v>
+      </c>
+      <c r="N185" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="1">
@@ -8464,6 +9952,30 @@
       <c r="F186" t="s">
         <v>205</v>
       </c>
+      <c r="G186" t="s">
+        <v>205</v>
+      </c>
+      <c r="H186" t="s">
+        <v>205</v>
+      </c>
+      <c r="I186" t="s">
+        <v>205</v>
+      </c>
+      <c r="J186" t="s">
+        <v>205</v>
+      </c>
+      <c r="K186" t="s">
+        <v>205</v>
+      </c>
+      <c r="L186" t="s">
+        <v>205</v>
+      </c>
+      <c r="M186" t="s">
+        <v>205</v>
+      </c>
+      <c r="N186" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="1">
@@ -8570,6 +10082,30 @@
         <v>1</v>
       </c>
       <c r="F189" t="s">
+        <v>205</v>
+      </c>
+      <c r="G189" t="s">
+        <v>205</v>
+      </c>
+      <c r="H189" t="s">
+        <v>205</v>
+      </c>
+      <c r="I189" t="s">
+        <v>205</v>
+      </c>
+      <c r="J189" t="s">
+        <v>205</v>
+      </c>
+      <c r="K189" t="s">
+        <v>205</v>
+      </c>
+      <c r="L189" t="s">
+        <v>205</v>
+      </c>
+      <c r="M189" t="s">
+        <v>205</v>
+      </c>
+      <c r="N189" t="s">
         <v>205</v>
       </c>
     </row>

--- a/sequences/10_retrieval_1.xlsx
+++ b/sequences/10_retrieval_1.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>wecken</t>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>schnellen</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>gnaden</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>hindern</t>
+  </si>
+  <si>
+    <t>nutzen</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>plaudern</t>
+  </si>
+  <si>
+    <t>kratzen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>hassen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>löschen</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>kürzen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>garen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>rücken</t>
+  </si>
+  <si>
+    <t>fehlen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>klagen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>teilen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>kämpfen</t>
+  </si>
+  <si>
+    <t>regeln</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>herzen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>knurren</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>messen</t>
+  </si>
+  <si>
+    <t>pissen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>lieben</t>
+  </si>
+  <si>
+    <t>träumen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>brauen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>feuern</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>merken</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>rauchen</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>nähen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>wehren</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>weinen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>läuten</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>lösen</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>bilden</t>
   </si>
   <si>
     <t>tollen</t>
   </si>
   <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>beichten</t>
-  </si>
-  <si>
-    <t>rauchen</t>
-  </si>
-  <si>
-    <t>heißen</t>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>strahlen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>rauben</t>
+  </si>
+  <si>
+    <t>kranken</t>
+  </si>
+  <si>
+    <t>heben</t>
   </si>
   <si>
     <t>lächeln</t>
   </si>
   <si>
+    <t>ächzen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
     <t>backen</t>
   </si>
   <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>ächzen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>lohnen</t>
-  </si>
-  <si>
-    <t>prügeln</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>orten</t>
-  </si>
-  <si>
-    <t>sorgen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>enden</t>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>zeichnen</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>stimmen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>sprengen</t>
   </si>
   <si>
     <t>kosten</t>
   </si>
   <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>äußern</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>hängen</t>
-  </si>
-  <si>
-    <t>melden</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>schämen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>läuten</t>
-  </si>
-  <si>
-    <t>klingeln</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>sterben</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>hexen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>kürzen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>leihen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>schalten</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>räumen</t>
-  </si>
-  <si>
-    <t>fehlen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>schlagen</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>spinnen</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>sitzen</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>zünden</t>
-  </si>
-  <si>
-    <t>lesen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>greifen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>seufzen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>pflanzen</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>trauen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>leiden</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>schließen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>kämpfen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>siegen</t>
+    <t>streichen</t>
   </si>
   <si>
     <t>zögern</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>dingen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>bomben</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>schreiten</t>
-  </si>
-  <si>
-    <t>wärmen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>putzen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>stammen</t>
-  </si>
-  <si>
-    <t>nähern</t>
-  </si>
-  <si>
-    <t>sperren</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>wechseln</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>bremsen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>checken</t>
-  </si>
-  <si>
-    <t>vögeln</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>suchen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>zielen</t>
   </si>
   <si>
     <t>N/A</t>
